--- a/cp1/tostogan_fb-01_novak_fb-01_cp1/letters1.xlsx
+++ b/cp1/tostogan_fb-01_novak_fb-01_cp1/letters1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>quantity</t>
   </si>
@@ -25,94 +25,97 @@
     <t>о</t>
   </si>
   <si>
+    <t>е</t>
+  </si>
+  <si>
     <t>а</t>
   </si>
   <si>
-    <t>е</t>
+    <t>н</t>
   </si>
   <si>
     <t>и</t>
   </si>
   <si>
-    <t>н</t>
-  </si>
-  <si>
     <t>т</t>
   </si>
   <si>
     <t>с</t>
   </si>
   <si>
+    <t>в</t>
+  </si>
+  <si>
     <t>л</t>
   </si>
   <si>
     <t>р</t>
   </si>
   <si>
-    <t>в</t>
-  </si>
-  <si>
     <t>к</t>
   </si>
   <si>
     <t>м</t>
   </si>
   <si>
+    <t>д</t>
+  </si>
+  <si>
     <t>п</t>
   </si>
   <si>
-    <t>д</t>
-  </si>
-  <si>
     <t>у</t>
   </si>
   <si>
+    <t>я</t>
+  </si>
+  <si>
+    <t>ь</t>
+  </si>
+  <si>
+    <t>ч</t>
+  </si>
+  <si>
+    <t>г</t>
+  </si>
+  <si>
+    <t>з</t>
+  </si>
+  <si>
     <t>ы</t>
   </si>
   <si>
-    <t>я</t>
-  </si>
-  <si>
-    <t>г</t>
-  </si>
-  <si>
     <t>б</t>
   </si>
   <si>
-    <t>ь</t>
-  </si>
-  <si>
-    <t>з</t>
-  </si>
-  <si>
-    <t>ч</t>
+    <t>ж</t>
   </si>
   <si>
     <t>й</t>
   </si>
   <si>
-    <t>ж</t>
+    <t>ш</t>
   </si>
   <si>
     <t>х</t>
   </si>
   <si>
-    <t>ш</t>
-  </si>
-  <si>
     <t>ю</t>
   </si>
   <si>
+    <t>э</t>
+  </si>
+  <si>
+    <t>щ</t>
+  </si>
+  <si>
     <t>ц</t>
   </si>
   <si>
-    <t>щ</t>
-  </si>
-  <si>
     <t>ф</t>
   </si>
   <si>
-    <t>э</t>
+    <t>ё</t>
   </si>
   <si>
     <t>ъ</t>
@@ -473,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,10 +495,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>77418</v>
+        <v>115667</v>
       </c>
       <c r="C2">
-        <v>0.1072069527069693</v>
+        <v>0.1125593489352468</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -503,10 +506,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>60763</v>
+        <v>91838</v>
       </c>
       <c r="C3">
-        <v>0.08414343004641785</v>
+        <v>0.08937056798840805</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -514,10 +517,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>58343</v>
+        <v>81731</v>
       </c>
       <c r="C4">
-        <v>0.08079226073758959</v>
+        <v>0.07953511500969727</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -525,10 +528,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>52986</v>
+        <v>68872</v>
       </c>
       <c r="C5">
-        <v>0.07337399049486523</v>
+        <v>0.06702160062825452</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -536,10 +539,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>44964</v>
+        <v>65574</v>
       </c>
       <c r="C6">
-        <v>0.06226527967031141</v>
+        <v>0.06381220872919564</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -547,10 +550,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>41635</v>
+        <v>64769</v>
       </c>
       <c r="C7">
-        <v>0.05765534469961337</v>
+        <v>0.06302883684358546</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -558,10 +561,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>39339</v>
+        <v>54653</v>
       </c>
       <c r="C8">
-        <v>0.05447588819834491</v>
+        <v>0.05318462566988028</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -569,10 +572,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>35421</v>
+        <v>48418</v>
       </c>
       <c r="C9">
-        <v>0.04905031739173785</v>
+        <v>0.04711714280431565</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -580,10 +583,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>35329</v>
+        <v>47693</v>
       </c>
       <c r="C10">
-        <v>0.04892291756677412</v>
+        <v>0.04641162154087791</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -591,10 +594,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>34264</v>
+        <v>40108</v>
       </c>
       <c r="C11">
-        <v>0.04744812611474847</v>
+        <v>0.03903040942615333</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -602,10 +605,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>26293</v>
+        <v>33391</v>
       </c>
       <c r="C12">
-        <v>0.03641003910620714</v>
+        <v>0.03249387656199975</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -613,10 +616,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>22389</v>
+        <v>32127</v>
       </c>
       <c r="C13">
-        <v>0.03100385522948586</v>
+        <v>0.03126383673167518</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -624,10 +627,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>21930</v>
+        <v>31566</v>
       </c>
       <c r="C14">
-        <v>0.03036824088537339</v>
+        <v>0.03071790924369094</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -635,10 +638,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>21702</v>
+        <v>27828</v>
       </c>
       <c r="C15">
-        <v>0.03005251088437635</v>
+        <v>0.02708033892268363</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -646,10 +649,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>20236</v>
+        <v>26970</v>
       </c>
       <c r="C16">
-        <v>0.02802242236919361</v>
+        <v>0.0262453909998842</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -657,10 +660,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>14009</v>
+        <v>24528</v>
       </c>
       <c r="C17">
-        <v>0.01939939291213843</v>
+        <v>0.02386900075807043</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -668,10 +671,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>13175</v>
+        <v>23157</v>
       </c>
       <c r="C18">
-        <v>0.0182444858032282</v>
+        <v>0.02253483572059023</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -679,10 +682,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>12656</v>
+        <v>19631</v>
       </c>
       <c r="C19">
-        <v>0.01752578461674809</v>
+        <v>0.01910356954833988</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -690,10 +693,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>12090</v>
+        <v>19295</v>
       </c>
       <c r="C20">
-        <v>0.01674199873708</v>
+        <v>0.01877659693521563</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -701,10 +704,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>11982</v>
+        <v>17831</v>
       </c>
       <c r="C21">
-        <v>0.01659244242081824</v>
+        <v>0.01735193054945996</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -712,10 +715,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>11914</v>
+        <v>17825</v>
       </c>
       <c r="C22">
-        <v>0.01649827733280158</v>
+        <v>0.01734609175279703</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -723,10 +726,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>10319</v>
+        <v>17200</v>
       </c>
       <c r="C23">
-        <v>0.01428955210652841</v>
+        <v>0.01673788376707483</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -734,10 +737,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>9125</v>
+        <v>12116</v>
       </c>
       <c r="C24">
-        <v>0.01263612394341232</v>
+        <v>0.0117904767280162</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -745,10 +748,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>7009</v>
+        <v>10105</v>
       </c>
       <c r="C25">
-        <v>0.00970592796924679</v>
+        <v>0.009833506713156463</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -756,10 +759,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>6773</v>
+        <v>8395</v>
       </c>
       <c r="C26">
-        <v>0.009379119722600729</v>
+        <v>0.008169449664220535</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -767,10 +770,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>6030</v>
+        <v>7477</v>
       </c>
       <c r="C27">
-        <v>0.008350227657948087</v>
+        <v>0.007276113774791774</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -778,10 +781,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>3995</v>
+        <v>6147</v>
       </c>
       <c r="C28">
-        <v>0.005532198920978874</v>
+        <v>0.005981847181174941</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -789,10 +792,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>3913</v>
+        <v>3674</v>
       </c>
       <c r="C29">
-        <v>0.005418646903076429</v>
+        <v>0.003575289823269356</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -800,10 +803,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>2384</v>
+        <v>3024</v>
       </c>
       <c r="C30">
-        <v>0.003301317203407669</v>
+        <v>0.002942753518118272</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -811,10 +814,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1795</v>
+        <v>2979</v>
       </c>
       <c r="C31">
-        <v>0.002485681367498643</v>
+        <v>0.002898962543146275</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -822,10 +825,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1732</v>
+        <v>1877</v>
       </c>
       <c r="C32">
-        <v>0.002398440183012618</v>
+        <v>0.001826570222720899</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -833,10 +836,21 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>223</v>
+        <v>836</v>
       </c>
       <c r="C33">
-        <v>0.0003088060974664052</v>
+        <v>0.0008135390017020093</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34">
+        <v>307</v>
+      </c>
+      <c r="C34">
+        <v>0.0002987517625867426</v>
       </c>
     </row>
   </sheetData>

--- a/cp1/tostogan_fb-01_novak_fb-01_cp1/letters1.xlsx
+++ b/cp1/tostogan_fb-01_novak_fb-01_cp1/letters1.xlsx
@@ -498,7 +498,7 @@
         <v>115667</v>
       </c>
       <c r="C2">
-        <v>0.1125593489352468</v>
+        <v>0.1125605538352546</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -506,10 +506,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>91838</v>
+        <v>91837</v>
       </c>
       <c r="C3">
-        <v>0.08937056798840805</v>
+        <v>0.08937055151917384</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -517,10 +517,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>81731</v>
+        <v>81729</v>
       </c>
       <c r="C4">
-        <v>0.07953511500969727</v>
+        <v>0.07953402011292354</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -531,7 +531,7 @@
         <v>68872</v>
       </c>
       <c r="C5">
-        <v>0.06702160062825452</v>
+        <v>0.06702231806601414</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -542,7 +542,7 @@
         <v>65574</v>
       </c>
       <c r="C6">
-        <v>0.06381220872919564</v>
+        <v>0.06381289181177853</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -550,10 +550,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>64769</v>
+        <v>64768</v>
       </c>
       <c r="C7">
-        <v>0.06302883684358546</v>
+        <v>0.06302853839731101</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -561,10 +561,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>54653</v>
+        <v>54652</v>
       </c>
       <c r="C8">
-        <v>0.05318462566988028</v>
+        <v>0.05318422184550768</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -572,10 +572,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>48418</v>
+        <v>48417</v>
       </c>
       <c r="C9">
-        <v>0.04711714280431565</v>
+        <v>0.04711667403011684</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -586,7 +586,7 @@
         <v>47693</v>
       </c>
       <c r="C10">
-        <v>0.04641162154087791</v>
+        <v>0.04641211835756785</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -594,10 +594,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>40108</v>
+        <v>40107</v>
       </c>
       <c r="C11">
-        <v>0.03903040942615333</v>
+        <v>0.03902985408690948</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -608,7 +608,7 @@
         <v>33391</v>
       </c>
       <c r="C12">
-        <v>0.03249387656199975</v>
+        <v>0.03249422439514285</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -619,7 +619,7 @@
         <v>32127</v>
       </c>
       <c r="C13">
-        <v>0.03126383673167518</v>
+        <v>0.0312641713977645</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -630,7 +630,7 @@
         <v>31566</v>
       </c>
       <c r="C14">
-        <v>0.03071790924369094</v>
+        <v>0.03071823806585844</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -638,10 +638,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>27828</v>
+        <v>27827</v>
       </c>
       <c r="C15">
-        <v>0.02708033892268363</v>
+        <v>0.02707965566301219</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -652,7 +652,7 @@
         <v>26970</v>
       </c>
       <c r="C16">
-        <v>0.0262453909998842</v>
+        <v>0.02624567194564411</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -660,10 +660,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>24528</v>
+        <v>24527</v>
       </c>
       <c r="C17">
-        <v>0.02386900075807043</v>
+        <v>0.02386828312238833</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -671,10 +671,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>23157</v>
+        <v>23156</v>
       </c>
       <c r="C18">
-        <v>0.02253483572059023</v>
+        <v>0.02253410380323823</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -682,10 +682,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>19631</v>
+        <v>19630</v>
       </c>
       <c r="C19">
-        <v>0.01910356954833988</v>
+        <v>0.01910280090074134</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -696,7 +696,7 @@
         <v>19295</v>
       </c>
       <c r="C20">
-        <v>0.01877659693521563</v>
+        <v>0.01877679793070831</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -707,7 +707,7 @@
         <v>17831</v>
       </c>
       <c r="C21">
-        <v>0.01735193054945996</v>
+        <v>0.01735211629450427</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -718,7 +718,7 @@
         <v>17825</v>
       </c>
       <c r="C22">
-        <v>0.01734609175279703</v>
+        <v>0.0173462774353395</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -729,7 +729,7 @@
         <v>17200</v>
       </c>
       <c r="C23">
-        <v>0.01673788376707483</v>
+        <v>0.01673806293900922</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -740,7 +740,7 @@
         <v>12116</v>
       </c>
       <c r="C24">
-        <v>0.0117904767280162</v>
+        <v>0.01179060294006022</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -751,7 +751,7 @@
         <v>10105</v>
       </c>
       <c r="C25">
-        <v>0.009833506713156463</v>
+        <v>0.009833611976667919</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -762,7 +762,7 @@
         <v>8395</v>
       </c>
       <c r="C26">
-        <v>0.008169449664220535</v>
+        <v>0.00816953711470828</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -773,7 +773,7 @@
         <v>7477</v>
       </c>
       <c r="C27">
-        <v>0.007276113774791774</v>
+        <v>0.00727619166249837</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -784,7 +784,7 @@
         <v>6147</v>
       </c>
       <c r="C28">
-        <v>0.005981847181174941</v>
+        <v>0.005981911214307541</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -795,7 +795,7 @@
         <v>3674</v>
       </c>
       <c r="C29">
-        <v>0.003575289823269356</v>
+        <v>0.0035753280952279</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -806,7 +806,7 @@
         <v>3024</v>
       </c>
       <c r="C30">
-        <v>0.002942753518118272</v>
+        <v>0.002942785019044412</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -817,7 +817,7 @@
         <v>2979</v>
       </c>
       <c r="C31">
-        <v>0.002898962543146275</v>
+        <v>0.002898993575308632</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -828,7 +828,7 @@
         <v>1877</v>
       </c>
       <c r="C32">
-        <v>0.001826570222720899</v>
+        <v>0.001826589775379088</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -839,7 +839,7 @@
         <v>836</v>
       </c>
       <c r="C33">
-        <v>0.0008135390017020093</v>
+        <v>0.0008135477102913785</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -850,7 +850,7 @@
         <v>307</v>
       </c>
       <c r="C34">
-        <v>0.0002987517625867426</v>
+        <v>0.0002987549605974321</v>
       </c>
     </row>
   </sheetData>
